--- a/Contact_List.xlsx
+++ b/Contact_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\newproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C044AF6F-899B-435A-B160-8974241219AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB533F1-EDBF-449D-B28C-A6C62AEFB22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -535,6 +535,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{0F4AEB7F-F6D5-412F-9214-218B67EC2DBE}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{42EDFD16-23B2-4D73-A148-4C8EF11521A5}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{F9C9A123-4A2E-4884-95C3-1F141E30D6BE}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3422E2D0-27E1-46CE-A2DA-3A70840D82BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
